--- a/staticfiles/output.xlsx
+++ b/staticfiles/output.xlsx
@@ -14,17 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="1">
-  <si>
-    <t/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,8 +29,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -87,25 +90,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -412,293 +409,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
